--- a/paper_templates/Design_Paper.xlsx
+++ b/paper_templates/Design_Paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\SnowBall\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A67E1B0-3280-4C70-8C03-AD104EA6B11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AACF98-8AE2-4AEE-AE1A-A653567B9D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28605" yWindow="16290" windowWidth="29040" windowHeight="15720" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="15720" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCM" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <definedName name="NvsTreeASD">"V2002-12-31"</definedName>
     <definedName name="NvsValTbl.ACCOUNT">"GL_ACCOUNT_TBL"</definedName>
     <definedName name="ORG">[3]SETUP!$A$3:$A$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">RCM!$A$1:$E$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RCM!$A$1:$F$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Template!$A$1:$C$15</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="Print_Area_MI">#REF!</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Client</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -143,6 +143,10 @@
   <si>
     <t>검토 결과</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1117,12 +1121,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B9" sqref="B9:C10"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1131,11 +1135,11 @@
     <col min="2" max="2" width="57.83203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="109.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="108.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
@@ -1151,778 +1155,880 @@
       <c r="E1" s="25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F1" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29"/>
       <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
       <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="28"/>
-    </row>
-    <row r="30" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="28"/>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="28"/>
-    </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="27"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
-    </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
-    </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="27"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="27"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
-    </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="27"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
-    </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="27"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="27"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="27"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="27"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
-    </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="27"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
-    </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="27"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="27"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
-    </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F53" s="28"/>
+    </row>
+    <row r="54" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="27"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
-    </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="27"/>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
-    </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
       <c r="C57" s="27"/>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
-    </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
       <c r="C58" s="27"/>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
-    </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="26"/>
       <c r="B59" s="26"/>
       <c r="C59" s="27"/>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
-    </row>
-    <row r="60" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F59" s="28"/>
+    </row>
+    <row r="60" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
       <c r="C60" s="27"/>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
-    </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F60" s="28"/>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
-    </row>
-    <row r="62" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F61" s="28"/>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="26"/>
       <c r="B62" s="26"/>
       <c r="C62" s="27"/>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
-    </row>
-    <row r="63" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F62" s="28"/>
+    </row>
+    <row r="63" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="27"/>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
-    </row>
-    <row r="64" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F63" s="28"/>
+    </row>
+    <row r="64" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
       <c r="C64" s="27"/>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
-    </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F64" s="28"/>
+    </row>
+    <row r="65" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
       <c r="C65" s="27"/>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
-    </row>
-    <row r="66" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F65" s="28"/>
+    </row>
+    <row r="66" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
-    </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F66" s="28"/>
+    </row>
+    <row r="67" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
       <c r="C67" s="27"/>
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
-    </row>
-    <row r="68" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F67" s="28"/>
+    </row>
+    <row r="68" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="26"/>
       <c r="B68" s="26"/>
       <c r="C68" s="27"/>
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
-    </row>
-    <row r="69" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F68" s="28"/>
+    </row>
+    <row r="69" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="26"/>
       <c r="B69" s="26"/>
       <c r="C69" s="27"/>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
-    </row>
-    <row r="70" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F69" s="28"/>
+    </row>
+    <row r="70" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
       <c r="C70" s="27"/>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
-    </row>
-    <row r="71" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F70" s="28"/>
+    </row>
+    <row r="71" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="26"/>
       <c r="B71" s="26"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
-    </row>
-    <row r="72" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F71" s="28"/>
+    </row>
+    <row r="72" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
       <c r="C72" s="27"/>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
-    </row>
-    <row r="73" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F72" s="28"/>
+    </row>
+    <row r="73" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
       <c r="C73" s="27"/>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
-    </row>
-    <row r="74" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F73" s="28"/>
+    </row>
+    <row r="74" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="26"/>
       <c r="B74" s="26"/>
       <c r="C74" s="27"/>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
-    </row>
-    <row r="75" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F74" s="28"/>
+    </row>
+    <row r="75" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="26"/>
       <c r="B75" s="26"/>
       <c r="C75" s="27"/>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
-    </row>
-    <row r="76" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F75" s="28"/>
+    </row>
+    <row r="76" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="26"/>
       <c r="B76" s="26"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="28"/>
-    </row>
-    <row r="77" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F76" s="28"/>
+    </row>
+    <row r="77" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="26"/>
       <c r="B77" s="26"/>
       <c r="C77" s="27"/>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
-    </row>
-    <row r="78" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F77" s="28"/>
+    </row>
+    <row r="78" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="26"/>
       <c r="B78" s="26"/>
       <c r="C78" s="27"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
-    </row>
-    <row r="79" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F78" s="28"/>
+    </row>
+    <row r="79" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
       <c r="C79" s="27"/>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
-    </row>
-    <row r="80" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F79" s="28"/>
+    </row>
+    <row r="80" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
       <c r="C80" s="27"/>
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
-    </row>
-    <row r="81" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F80" s="28"/>
+    </row>
+    <row r="81" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
       <c r="C81" s="27"/>
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
-    </row>
-    <row r="82" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F81" s="28"/>
+    </row>
+    <row r="82" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
       <c r="C82" s="27"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
-    </row>
-    <row r="83" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F82" s="28"/>
+    </row>
+    <row r="83" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="26"/>
       <c r="B83" s="26"/>
       <c r="C83" s="27"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
-    </row>
-    <row r="84" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F83" s="28"/>
+    </row>
+    <row r="84" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="26"/>
       <c r="B84" s="26"/>
       <c r="C84" s="27"/>
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
-    </row>
-    <row r="85" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F84" s="28"/>
+    </row>
+    <row r="85" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="26"/>
       <c r="B85" s="26"/>
       <c r="C85" s="27"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
-    </row>
-    <row r="86" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F85" s="28"/>
+    </row>
+    <row r="86" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
       <c r="C86" s="27"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
-    </row>
-    <row r="87" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F86" s="28"/>
+    </row>
+    <row r="87" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="26"/>
       <c r="B87" s="26"/>
       <c r="C87" s="27"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
-    </row>
-    <row r="88" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F87" s="28"/>
+    </row>
+    <row r="88" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="26"/>
       <c r="B88" s="26"/>
       <c r="C88" s="27"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
-    </row>
-    <row r="89" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F88" s="28"/>
+    </row>
+    <row r="89" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="26"/>
       <c r="B89" s="26"/>
       <c r="C89" s="27"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
-    </row>
-    <row r="90" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F89" s="28"/>
+    </row>
+    <row r="90" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="26"/>
       <c r="B90" s="26"/>
       <c r="C90" s="27"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
-    </row>
-    <row r="91" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F90" s="28"/>
+    </row>
+    <row r="91" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="26"/>
       <c r="B91" s="26"/>
       <c r="C91" s="27"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
-    </row>
-    <row r="92" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F91" s="28"/>
+    </row>
+    <row r="92" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="26"/>
       <c r="B92" s="26"/>
       <c r="C92" s="27"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
-    </row>
-    <row r="93" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F92" s="28"/>
+    </row>
+    <row r="93" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
       <c r="C93" s="27"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
-    </row>
-    <row r="94" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F93" s="28"/>
+    </row>
+    <row r="94" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="26"/>
       <c r="B94" s="26"/>
       <c r="C94" s="27"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
-    </row>
-    <row r="95" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F94" s="28"/>
+    </row>
+    <row r="95" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
       <c r="C95" s="27"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
-    </row>
-    <row r="96" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F95" s="28"/>
+    </row>
+    <row r="96" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
       <c r="C96" s="27"/>
       <c r="D96" s="28"/>
       <c r="E96" s="28"/>
-    </row>
-    <row r="97" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F96" s="28"/>
+    </row>
+    <row r="97" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
       <c r="C97" s="27"/>
       <c r="D97" s="28"/>
       <c r="E97" s="28"/>
-    </row>
-    <row r="98" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F97" s="28"/>
+    </row>
+    <row r="98" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
       <c r="C98" s="27"/>
       <c r="D98" s="28"/>
       <c r="E98" s="28"/>
-    </row>
-    <row r="99" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F98" s="28"/>
+    </row>
+    <row r="99" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
       <c r="C99" s="27"/>
       <c r="D99" s="28"/>
       <c r="E99" s="28"/>
-    </row>
-    <row r="100" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F99" s="28"/>
+    </row>
+    <row r="100" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
       <c r="C100" s="27"/>
       <c r="D100" s="28"/>
       <c r="E100" s="28"/>
-    </row>
-    <row r="101" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+      <c r="F100" s="28"/>
+    </row>
+    <row r="101" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="102" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="103" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="104" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="105" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="106" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="107" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="108" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="109" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="110" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="111" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" s="1" customFormat="1" ht="9.75" customHeight="1">
+    <row r="112" spans="1:6" s="1" customFormat="1" ht="9.75" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2300,7 +2406,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35:E100" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35:F100" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Lower,Higher"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2506,24 +2612,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100339A91ABF6B0E74BBAB45B3A7F6E62EE" ma:contentTypeVersion="" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="6e17012235b26a7a0350590f144b58ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bbecb3f91f6338ad1582cc9b6c688ac" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2655,25 +2743,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9F50EA-511A-47A0-93D9-E0B615D1BBD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC26BC8C-8D44-46BE-A39D-C16F3FC5094C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4667855A-3738-433F-9E1F-E8508E1FE58D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2689,4 +2777,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC26BC8C-8D44-46BE-A39D-C16F3FC5094C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9F50EA-511A-47A0-93D9-E0B615D1BBD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>